--- a/assets/php/listado.xlsx
+++ b/assets/php/listado.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasfocil/Documents/John Andrés/frontend-ferchos/assets/php/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F8C397-E742-6E42-81AB-74BDF6089F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31720" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="110">
   <si>
     <t>Características</t>
   </si>
@@ -323,12 +332,6 @@
   </si>
   <si>
     <t>Utilizado para remolcar carga pesada.|Fabricado en acero forjado.|De alta resistencia.|&lt;strong&gt;Capacidad:&lt;/strong&gt;|• 5 Toneladas|• 10 Toneladas|Incluye kit de pernos para instalación.</t>
-  </si>
-  <si>
-    <t>Sistemas de luces.</t>
-  </si>
-  <si>
-    <t>Prácticos juegos de luces, listos para instalar.|&lt;strong&gt;Diferentes tipos:&lt;/strong&gt;|&lt;br /&gt;|• Luces de stop y laterales.|• Luces LED de stop y laterales, sumergibles, especiales para remolques de embarcaciones marítimas.|&lt;br /&gt;|&lt;strong&gt;Cada juego incluye:&lt;/strong&gt; cables (8 m. aprox.) y 2 sockets de 4 vías – hembra y macho.</t>
   </si>
   <si>
     <t>Conectores eléctricos: 4 Polos</t>
@@ -359,11 +362,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -373,11 +373,6 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
@@ -424,37 +419,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="bottom" readingOrder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,24 +447,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -683,7 +727,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -702,7 +746,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -732,7 +776,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -758,7 +802,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -784,7 +828,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -810,7 +854,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -836,7 +880,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -862,7 +906,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -888,7 +932,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -914,7 +958,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -940,7 +984,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -953,9 +997,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -972,7 +1022,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -991,7 +1041,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1017,7 +1067,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1043,7 +1093,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1069,7 +1119,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1095,7 +1145,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1121,7 +1171,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1147,7 +1197,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1173,7 +1223,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1199,7 +1249,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1225,7 +1275,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1238,9 +1288,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1254,7 +1310,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1273,7 +1329,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1303,7 +1359,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,7 +1385,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1355,7 +1411,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1381,7 +1437,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1407,7 +1463,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1433,7 +1489,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1459,7 +1515,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1485,7 +1541,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1511,7 +1567,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1524,59 +1580,68 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="1" customWidth="1"/>
     <col min="3" max="3" width="42.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="255" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.8516" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.8516" style="1" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.25" customHeight="1">
+    <row r="1" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s" s="3">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" ht="15.25" customHeight="1">
+    <row r="2" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2">
@@ -1584,17 +1649,17 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" ht="15.25" customHeight="1">
+    <row r="3" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2">
@@ -1602,17 +1667,17 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" ht="15.25" customHeight="1">
+    <row r="4" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s" s="3">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s" s="4">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="2">
@@ -1620,17 +1685,17 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" ht="15.25" customHeight="1">
+    <row r="5" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="2">
@@ -1638,17 +1703,17 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" ht="15.25" customHeight="1">
+    <row r="6" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s" s="3">
+      <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s" s="4">
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2">
@@ -1656,33 +1721,33 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" ht="15.25" customHeight="1">
+    <row r="7" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" t="s" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s" s="3">
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s" s="4">
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" ht="15.25" customHeight="1">
+    <row r="8" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" t="s" s="3">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s" s="3">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s" s="4">
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="2">
@@ -1690,17 +1755,17 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" ht="15.25" customHeight="1">
+    <row r="9" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s" s="3">
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s" s="4">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="2">
@@ -1708,17 +1773,17 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" ht="15.25" customHeight="1">
+    <row r="10" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s" s="3">
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s" s="4">
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="2">
@@ -1726,17 +1791,17 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" ht="15.25" customHeight="1">
+    <row r="11" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="B11" t="s" s="3">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s" s="3">
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s" s="4">
+      <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="2">
@@ -1744,33 +1809,33 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" ht="15.25" customHeight="1">
+    <row r="12" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" t="s" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s" s="3">
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s" s="4">
+      <c r="D12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" ht="15.25" customHeight="1">
+    <row r="13" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" t="s" s="3">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s" s="3">
+      <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s" s="4">
+      <c r="D13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="2">
@@ -1778,17 +1843,17 @@
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" ht="15.25" customHeight="1">
+    <row r="14" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" t="s" s="3">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s" s="3">
+      <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" t="s" s="4">
+      <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="2">
@@ -1796,17 +1861,17 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" ht="15.25" customHeight="1">
+    <row r="15" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" t="s" s="3">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s" s="3">
+      <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D15" t="s" s="3">
+      <c r="D15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="2">
@@ -1814,17 +1879,17 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" ht="15.25" customHeight="1">
+    <row r="16" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>16</v>
       </c>
-      <c r="B16" t="s" s="3">
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="3">
+      <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D16" t="s" s="4">
+      <c r="D16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="2">
@@ -1832,17 +1897,17 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" ht="15.25" customHeight="1">
+    <row r="17" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>17</v>
       </c>
-      <c r="B17" t="s" s="3">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s" s="3">
+      <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D17" t="s" s="4">
+      <c r="D17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="2">
@@ -1850,17 +1915,17 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" ht="15.25" customHeight="1">
+    <row r="18" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" t="s" s="3">
+      <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s" s="3">
+      <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D18" t="s" s="4">
+      <c r="D18" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="2">
@@ -1868,17 +1933,17 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" ht="15.25" customHeight="1">
+    <row r="19" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>19</v>
       </c>
-      <c r="B19" t="s" s="3">
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s" s="3">
+      <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D19" t="s" s="4">
+      <c r="D19" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="2">
@@ -1886,33 +1951,33 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" ht="15.25" customHeight="1">
+    <row r="20" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>20</v>
       </c>
-      <c r="B20" t="s" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s" s="3">
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D20" t="s" s="4">
+      <c r="D20" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" ht="15.25" customHeight="1">
+    <row r="21" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>21</v>
       </c>
-      <c r="B21" t="s" s="3">
+      <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s" s="3">
+      <c r="C21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D21" t="s" s="3">
+      <c r="D21" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="2">
@@ -1920,17 +1985,17 @@
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" ht="15.25" customHeight="1">
+    <row r="22" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>22</v>
       </c>
-      <c r="B22" t="s" s="3">
+      <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C22" t="s" s="3">
+      <c r="C22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D22" t="s" s="4">
+      <c r="D22" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E22" s="2">
@@ -1938,17 +2003,17 @@
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" ht="15.25" customHeight="1">
+    <row r="23" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>23</v>
       </c>
-      <c r="B23" t="s" s="3">
+      <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C23" t="s" s="3">
+      <c r="C23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D23" t="s" s="4">
+      <c r="D23" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="2">
@@ -1956,17 +2021,17 @@
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" ht="15.25" customHeight="1">
+    <row r="24" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>24</v>
       </c>
-      <c r="B24" t="s" s="3">
+      <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C24" t="s" s="3">
+      <c r="C24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D24" t="s" s="4">
+      <c r="D24" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="2">
@@ -1974,17 +2039,17 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" ht="15.25" customHeight="1">
+    <row r="25" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>25</v>
       </c>
-      <c r="B25" t="s" s="3">
+      <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C25" t="s" s="3">
+      <c r="C25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D25" t="s" s="3">
+      <c r="D25" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E25" s="2">
@@ -1992,17 +2057,17 @@
       </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" ht="15.25" customHeight="1">
+    <row r="26" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>26</v>
       </c>
-      <c r="B26" t="s" s="3">
+      <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C26" t="s" s="3">
+      <c r="C26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D26" t="s" s="3">
+      <c r="D26" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E26" s="2">
@@ -2010,17 +2075,17 @@
       </c>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" ht="15.25" customHeight="1">
+    <row r="27" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>27</v>
       </c>
-      <c r="B27" t="s" s="3">
+      <c r="B27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C27" t="s" s="3">
+      <c r="C27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D27" t="s" s="4">
+      <c r="D27" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E27" s="7">
@@ -2028,17 +2093,17 @@
       </c>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" ht="15.25" customHeight="1">
+    <row r="28" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>28</v>
       </c>
-      <c r="B28" t="s" s="3">
+      <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C28" t="s" s="3">
+      <c r="C28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D28" t="s" s="4">
+      <c r="D28" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E28" s="2">
@@ -2046,33 +2111,33 @@
       </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" ht="15.25" customHeight="1">
+    <row r="29" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>29</v>
       </c>
-      <c r="B29" t="s" s="3">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s" s="3">
+      <c r="B29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D29" t="s" s="3">
+      <c r="D29" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" ht="15.25" customHeight="1">
+    <row r="30" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>30</v>
       </c>
-      <c r="B30" t="s" s="3">
+      <c r="B30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C30" t="s" s="3">
+      <c r="C30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D30" t="s" s="3">
+      <c r="D30" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E30" s="2">
@@ -2080,17 +2145,17 @@
       </c>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" ht="15.25" customHeight="1">
+    <row r="31" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>31</v>
       </c>
-      <c r="B31" t="s" s="3">
+      <c r="B31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C31" t="s" s="3">
+      <c r="C31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D31" t="s" s="3">
+      <c r="D31" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E31" s="2">
@@ -2098,17 +2163,17 @@
       </c>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" ht="15.25" customHeight="1">
+    <row r="32" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>32</v>
       </c>
-      <c r="B32" t="s" s="3">
+      <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C32" t="s" s="3">
+      <c r="C32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D32" t="s" s="3">
+      <c r="D32" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E32" s="2">
@@ -2116,33 +2181,33 @@
       </c>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" ht="15.25" customHeight="1">
+    <row r="33" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>33</v>
       </c>
-      <c r="B33" t="s" s="3">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s" s="3">
+      <c r="B33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D33" t="s" s="4">
+      <c r="D33" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" ht="15.25" customHeight="1">
+    <row r="34" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>34</v>
       </c>
-      <c r="B34" t="s" s="3">
+      <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C34" t="s" s="3">
+      <c r="C34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D34" t="s" s="4">
+      <c r="D34" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E34" s="2">
@@ -2150,17 +2215,17 @@
       </c>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" ht="15.25" customHeight="1">
+    <row r="35" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>35</v>
       </c>
-      <c r="B35" t="s" s="3">
+      <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C35" t="s" s="3">
+      <c r="C35" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D35" t="s" s="4">
+      <c r="D35" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E35" s="2">
@@ -2168,33 +2233,33 @@
       </c>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" ht="15.25" customHeight="1">
+    <row r="36" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>36</v>
       </c>
-      <c r="B36" t="s" s="3">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s" s="3">
+      <c r="B36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D36" t="s" s="4">
+      <c r="D36" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" ht="15.25" customHeight="1">
+    <row r="37" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>37</v>
       </c>
-      <c r="B37" t="s" s="4">
+      <c r="B37" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C37" t="s" s="3">
+      <c r="C37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D37" t="s" s="4">
+      <c r="D37" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E37" s="2">
@@ -2202,17 +2267,17 @@
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" ht="15.25" customHeight="1">
+    <row r="38" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>38</v>
       </c>
-      <c r="B38" t="s" s="3">
+      <c r="B38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C38" t="s" s="3">
+      <c r="C38" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D38" t="s" s="3">
+      <c r="D38" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E38" s="2">
@@ -2220,17 +2285,17 @@
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" ht="15.25" customHeight="1">
+    <row r="39" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>39</v>
       </c>
-      <c r="B39" t="s" s="3">
+      <c r="B39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C39" t="s" s="3">
+      <c r="C39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D39" t="s" s="4">
+      <c r="D39" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E39" s="2">
@@ -2238,17 +2303,17 @@
       </c>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" ht="15.25" customHeight="1">
+    <row r="40" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>40</v>
       </c>
-      <c r="B40" t="s" s="3">
+      <c r="B40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C40" t="s" s="3">
+      <c r="C40" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D40" t="s" s="3">
+      <c r="D40" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E40" s="2">
@@ -2256,33 +2321,33 @@
       </c>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" ht="15.25" customHeight="1">
+    <row r="41" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>41</v>
       </c>
-      <c r="B41" t="s" s="3">
+      <c r="B41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C41" t="s" s="3">
+      <c r="C41" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D41" t="s" s="4">
+      <c r="D41" s="4" t="s">
         <v>83</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" ht="15.25" customHeight="1">
+    <row r="42" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>42</v>
       </c>
-      <c r="B42" t="s" s="3">
+      <c r="B42" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C42" t="s" s="3">
+      <c r="C42" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D42" t="s" s="4">
+      <c r="D42" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E42" s="2">
@@ -2290,17 +2355,17 @@
       </c>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" ht="15.25" customHeight="1">
+    <row r="43" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43</v>
       </c>
-      <c r="B43" t="s" s="3">
+      <c r="B43" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C43" t="s" s="3">
+      <c r="C43" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D43" t="s" s="4">
+      <c r="D43" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E43" s="2">
@@ -2308,17 +2373,17 @@
       </c>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" ht="15.25" customHeight="1">
+    <row r="44" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44</v>
       </c>
-      <c r="B44" t="s" s="3">
+      <c r="B44" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C44" t="s" s="3">
+      <c r="C44" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D44" t="s" s="4">
+      <c r="D44" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E44" s="2">
@@ -2326,17 +2391,17 @@
       </c>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" ht="15.25" customHeight="1">
+    <row r="45" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>45</v>
       </c>
-      <c r="B45" t="s" s="3">
+      <c r="B45" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C45" t="s" s="3">
+      <c r="C45" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D45" t="s" s="4">
+      <c r="D45" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E45" s="2">
@@ -2344,17 +2409,17 @@
       </c>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" ht="15.25" customHeight="1">
+    <row r="46" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>46</v>
       </c>
-      <c r="B46" t="s" s="3">
+      <c r="B46" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C46" t="s" s="3">
+      <c r="C46" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D46" t="s" s="3">
+      <c r="D46" s="3" t="s">
         <v>93</v>
       </c>
       <c r="E46" s="2">
@@ -2362,33 +2427,33 @@
       </c>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" ht="15.25" customHeight="1">
+    <row r="47" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>47</v>
       </c>
-      <c r="B47" t="s" s="3">
-        <v>0</v>
-      </c>
-      <c r="C47" t="s" s="3">
+      <c r="B47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D47" t="s" s="3">
+      <c r="D47" s="3" t="s">
         <v>95</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" ht="15.25" customHeight="1">
+    <row r="48" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>48</v>
       </c>
-      <c r="B48" t="s" s="3">
+      <c r="B48" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C48" t="s" s="3">
+      <c r="C48" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D48" t="s" s="3">
+      <c r="D48" s="3" t="s">
         <v>97</v>
       </c>
       <c r="E48" s="2">
@@ -2396,129 +2461,105 @@
       </c>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" ht="15.25" customHeight="1">
+    <row r="49" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>49</v>
       </c>
-      <c r="B49" t="s" s="3">
+      <c r="B49" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C49" t="s" s="3">
+      <c r="C49" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D49" t="s" s="8">
+      <c r="D49" s="8" t="s">
         <v>99</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" ht="15.25" customHeight="1">
+    <row r="50" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>50</v>
       </c>
-      <c r="B50" t="s" s="3">
+      <c r="B50" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C50" t="s" s="3">
+      <c r="C50" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D50" t="s" s="8">
+      <c r="D50" s="8" t="s">
         <v>101</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" ht="15.25" customHeight="1">
+    <row r="51" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>51</v>
       </c>
-      <c r="B51" t="s" s="3">
+      <c r="B51" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C51" t="s" s="3">
+      <c r="C51" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D51" t="s" s="8">
+      <c r="D51" s="8" t="s">
         <v>103</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" ht="15.25" customHeight="1">
+    <row r="52" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C52" t="s" s="3">
+      <c r="C52" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D52" t="s" s="8">
+      <c r="D52" s="8" t="s">
         <v>105</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" ht="15.25" customHeight="1">
+    <row r="53" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C53" t="s" s="3">
+      <c r="C53" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D53" t="s" s="8">
+      <c r="D53" s="8" t="s">
         <v>107</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" ht="15.25" customHeight="1">
+    <row r="54" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s" s="3">
+        <v>55</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C54" t="s" s="3">
+      <c r="C54" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D54" t="s" s="8">
+      <c r="D54" s="3" t="s">
         <v>109</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" ht="15.25" customHeight="1">
-      <c r="A55" s="2">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s" s="3">
-        <v>110</v>
-      </c>
-      <c r="C55" t="s" s="3">
-        <v>82</v>
-      </c>
-      <c r="D55" t="s" s="3">
-        <v>111</v>
-      </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" ht="15.25" customHeight="1">
-      <c r="A56" s="5"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/assets/php/listado.xlsx
+++ b/assets/php/listado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasfocil/Documents/John Andrés/frontend-ferchos/assets/php/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F8C397-E742-6E42-81AB-74BDF6089F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23EDB8C-1629-9644-8C62-EB4E926A8B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="31720" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,350 +20,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="110">
-  <si>
-    <t>Características</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
   <si>
     <t>torsion</t>
-  </si>
-  <si>
-    <t>Suspensión hexagonal de caucho con suspensión independiente que asegura una transportación cuidadosa y segura.|&lt;br /&gt;|Durante la suspensión no se aplastan las gomas, sino que tienen espacio para trabajar (flexión), lo que asegura una amortiguación propia, suave y más estable, en cada rueda, logrando que las irregularidades de la carretera solo afecten el lado en que se originan.</t>
-  </si>
-  <si>
-    <t>Eje de Torsión 4 Pernos 750 Kg.</t>
-  </si>
-  <si>
-    <t>Marca: AL-KO|Capacidad: 750 Kg. (1650 Lb.)|Fácil Instalación|Se adhiere al chasis mediante 8 pernos.|Garantía: 2 años.|&lt;br /&gt;|Al usar este eje de torsión, &lt;strong&gt;NO NECESITA&lt;/strong&gt;|• Paquetes de resorte|• Platineras|• Abrazaderas|• Orejas|• Uniones|• Monturitas|&lt;br /&gt;|&lt;strong&gt;BENEFICIOS:&lt;/strong&gt;|✓Amortiguación suave|✓Mayor estabilidad a mayor velocidad|✓No salta la carga|✓Se elimina el tiempo de armado y suelda del eje en el sistema convencional</t>
-  </si>
-  <si>
-    <t>Eje de Torsión 5 Pernos 1000 Kg.</t>
-  </si>
-  <si>
-    <t>Marca: AL-KO|Capacidad: 1000 Kg. (2200 lb)|Fácil Instalación|Se adhiere al chasis mediante 10 pernos.|Garantía: 2 años.|&lt;br /&gt;|Al usar este eje de torsión, &lt;strong&gt;NO NECESITA&lt;/strong&gt;|• Paquetes de resorte|• Platineras|• Abrazaderas|• Orejas|• Uniones|• Monturitas|&lt;br /&gt;|&lt;strong&gt;BENEFICIOS:&lt;/strong&gt;|✓Amortiguación suave|✓Mayor estabilidad a mayor velocidad|✓No salta la carga|✓Se elimina el tiempo de armado y suelda del eje en el sistema convencional</t>
-  </si>
-  <si>
-    <t>Eje de Torsión 5 Pernos 1300 Kg.</t>
-  </si>
-  <si>
-    <t>Marca: AL-KO|Capacidad: 1300 Kg. (2860 lb)|Fácil Instalación|Se adhiere al chasis mediante 10 pernos.|Garantía: 2 años.|&lt;br /&gt;|Al usar este eje de torsión, &lt;strong&gt;NO NECESITA&lt;/strong&gt;|• Paquetes de resorte|• Platineras|• Abrazaderas|• Orejas|• Uniones|• Monturitas|&lt;br /&gt;|&lt;strong&gt;BENEFICIOS:&lt;/strong&gt;|✓ Amortiguación suave|✓ Mayor estabilidad a mayor velocidad|✓ No salta la carga|✓ Se elimina el tiempo de armado y suelda del eje en el sistema convencional</t>
-  </si>
-  <si>
-    <t>Abrazadera Union T</t>
-  </si>
-  <si>
-    <t>Abrazaderas para instalación de Ejes de torsión en chasis de remolques.|Galvanizadas en caliente.|Incluye tornillería.|Marca: AL-KO</t>
-  </si>
-  <si>
-    <t>Tubo de Eje de Torsión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tramo de tubo exterior hexagonal para alargar ejes de torsión de 750 Kg.|Galvanizado en caliente.|Marca: AL-KO </t>
   </si>
   <si>
     <t>punta</t>
   </si>
   <si>
-    <t>Determina la capacidad de carga de su remolque. Es importante considerar no solo el peso de su carga sino también el peso de su remolque al momento de elegirlo.|&lt;br /&gt;|&lt;strong&gt;Comprende:&lt;/strong&gt;|• Manzana|• Rulimanes|• Retenedor|• Tapa grasera|• Tuercas de seguridad aceradas|• Seguro|• Punta con tuerca y arandela|&lt;br /&gt;|Se necesitan 2 Kits de punta de eje para armar un eje.</t>
-  </si>
-  <si>
-    <t>Kit de Punta de Eje 4 Pernos 1000 Lb.</t>
-  </si>
-  <si>
-    <t>Distancia entre pernos: 4" (10 cm. Aprox.)|Se necesitan 2 Kits para armar un eje de 2000 Lb.|Trabaja con aros de 12”, 13”, 14".</t>
-  </si>
-  <si>
-    <t>Kit de Punta de Eje 4 Pernos 1250 Lb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distancia entre pernos: 4" (10 cm. Aprox.)|Se necesitan 2 Kits para armar un eje de 2500 Lb.|Trabaja con aros de 12”, 13”, 14". </t>
-  </si>
-  <si>
-    <t>Kit de Punta de Eje 5 Pernos 1750 Lb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distancia entre pernos: 4.5" (11.40 cm. Aprox.)|Se necesitan 2 Kits para armar un eje de 3500 Lb.|Trabaja con aros de 14”, 15”, 16". </t>
-  </si>
-  <si>
-    <t>Kit de Punta de Eje 6 Pernos 3000 Lb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distancia entre pernos: 5.5" (14 cm. Aprox.)|Se necesitan 2 Kits para armar un eje de 6000 Lb.|Trabaja con aros de 14”, 15”, 16". </t>
-  </si>
-  <si>
     <t>suspension</t>
-  </si>
-  <si>
-    <t>Sistemas de suspensión clásica utilizada en remolques.|Los Paquetes de resorte (muelles) sirven como amortiguador en el remolque.|Pueden ser de un solo ojo (deslizantes), o de doble ojo.|Su capacidad debe ir acorde a la capacidad de los kits de punta de eje de su remolque.</t>
-  </si>
-  <si>
-    <t>Paquetes de Resorte 1650 Lb.</t>
-  </si>
-  <si>
-    <t>Capacidad: 1650 Lb.|Largo: 24” (60.96 cm.)|Ancho: 1 3⁄4” (4.45 cm.)|(La distancia se mide del centro del ojo hasta el centro del final de la hoja.)</t>
-  </si>
-  <si>
-    <t>Paquetes de Resorte 1850 Lb.</t>
-  </si>
-  <si>
-    <t>Capacidad: 1850 Lb.|Largo: 20” (50.80 cm.)|Ancho: 1 3⁄4” (4.45 cm.)|(La distancia se mide de centro a centro de cada ojo.)</t>
-  </si>
-  <si>
-    <t>Paquetes de Resorte 2300 Lb.</t>
-  </si>
-  <si>
-    <t>Capacidad: 2300 Lb.|Largo: 29.5” (74.93 cm.)|Ancho: 1 3⁄4” (4.45 cm.)|(La distancia se mide del centro del ojo hasta el centro del final de la hoja.)</t>
-  </si>
-  <si>
-    <t>Paquetes de Resorte 3000 Lb.</t>
-  </si>
-  <si>
-    <t>Capacidad: 3500 Lb.|Largo: 25” (63.50 cm.)|Ancho: 1 3⁄4” (4.45 cm.)|(La distancia se mide de centro a centro de cada ojo.)</t>
-  </si>
-  <si>
-    <t>Kit de Orejas para un Solo Ojo</t>
-  </si>
-  <si>
-    <t>Sirven para paquetes de un solo ojo (deslizantes).|&lt;br /&gt;|&lt;strong&gt;Comprende:&lt;/strong&gt;|• 2 Orejas delanteras 1 3⁄4” X 1 1⁄2”|• 2 Uniones 3⁄4” x 2”|• 2 Pernos 1⁄2” X 3 1⁄2”|• 2 Tuercas 1⁄2|&lt;br /&gt;|Se necesita 1 solo kit para instalar 2 paquetes.</t>
-  </si>
-  <si>
-    <t>Kit de Orejas para Doble Ojo</t>
-  </si>
-  <si>
-    <t>Sirven para paquetes de doble ojo.|&lt;br /&gt;|&lt;strong&gt;Comprende:&lt;/strong&gt;|• 2 Orejas delanteras 1 3⁄4” X 1 1⁄2”|• 2 Orejas posteriores 1 1⁄4” x 1 1⁄4”|• 4 Platineras 1 1⁄2” x 1⁄4”|• 6 Pernos 1⁄2” X 3 1⁄2”|• 6 Tuercas 1⁄2|&lt;br /&gt;|Se necesita 1 solo kit para instalar 2 paquetes.</t>
-  </si>
-  <si>
-    <t>Kit de Balancines</t>
-  </si>
-  <si>
-    <t>Sistema para instalar paquetes de resorte en remolques de doble eje.|&lt;br /&gt;|&lt;strong&gt;Comprende:&lt;/strong&gt;|• 4 Orejas delanteras 1 3⁄4” X 1 1⁄2”|• 2 Orejas de balance 2 1⁄4”|• 2 Triángulos de balance 7 3⁄4”|• 8 Platineras 1 1⁄2” x 1⁄4”|• 14 Pernos 1/2” x 3 1/2”|• 14 Tuercas 1/2|Se necesita 1 solo kit para instalar 4 paquetes.|No incluye paquetes de Resorte.</t>
   </si>
   <si>
     <t>patas</t>
   </si>
   <si>
-    <t>Sencillo pero necesario componente que consiste en un tubo rígido con una manivela que permite ajustar la altura del remolque.|Pueden ser con rueda, o estacionarias.|Cuando hay que desplazar el remolque se recomienda elevar la rueda todo lo posible.</t>
-  </si>
-  <si>
-    <t>Patas de Soporte con Rueda - 1000 Lb.</t>
-  </si>
-  <si>
-    <t>Con rueda plástica.|&lt;strong&gt;Medidas:&lt;strong&gt;|23” (58.42 cm.) en estado normal|34” (86.36 cm.) extendida.|&lt;br /&gt;|&lt;strong&gt;Utilidades:&lt;strong&gt;|• Facilita el enganche en el sistema del carro, ya que permite subir y bajar el remolque en un margen de 40 cm.|• Sirve como apoyo cuando el remolque está estacionado.|• Permite arrastrar el remolque con menor esfuerzo, ya que se sostiene sobre la rueda.</t>
-  </si>
-  <si>
-    <t>Patas de Soporte con Rueda - 750 Kg</t>
-  </si>
-  <si>
-    <t>Marca AL-KO.|Con rueda compacta.|&lt;strong&gt;Capacidad:&lt;/strong&gt; 150 Kg. Para remolques 750 Kg.|&lt;strong&gt;Medidas:&lt;strong&gt;|50 cm. en estado normal|80 cm. extendida.|&lt;br /&gt;|&lt;strong&gt;Utilidades:&lt;strong&gt;|•Facilita el enganche en el sistema del carro, ya que permite subir y bajar el remolque en un margen de 30 cm.|•Sirve como apoyo cuando el remolque está estacionado.|•Permite arrastrar el remolque con menor esfuerzo, ya que se sostiene sobre la rueda.</t>
-  </si>
-  <si>
-    <t>Patas Soporte con Llanta - 1000 Kg.</t>
-  </si>
-  <si>
-    <t>Marca AL-KO.|&lt;strong&gt;Capacidad:&lt;/strong&gt; 200 Kg. Para remolques 1000 Kg.|&lt;strong&gt;Medidas:&lt;strong&gt;|50 cm. en estado normal|85 cm. extendida.|&lt;br /&gt;|&lt;strong&gt;Utilidades:&lt;strong&gt;|• Facilita el enganche en el sistema del carro, ya que permite subir y bajar el remolque en un margen de 35 cm.|• Sirve como apoyo cuando el remolque está estacionado.|• Permite arrastrar el remolque con menor esfuerzo, ya que se sostiene sobre la rueda.</t>
-  </si>
-  <si>
-    <t>Patas Soporte con Rueda - 1500 Kg.</t>
-  </si>
-  <si>
-    <t>Marca AL-KO.|Con rueda compacta.|&lt;strong&gt;Capacidad:&lt;/strong&gt; 300 Kg. Para remolques 1500 Kg.|&lt;strong&gt;Medidas:&lt;strong&gt;|57 cm. en estado normal|87 cm. extendida.|&lt;br /&gt;|&lt;strong&gt;Utilidades:&lt;strong&gt;|•Facilita el enganche en el sistema del carro, ya que permite subir y bajar el remolque en un margen de 30 cm.|•Sirve como apoyo cuando el remolque está estacionado.|•Permite arrastrar el remolque con menor esfuerzo, ya que se sostiene sobre la rueda.</t>
-  </si>
-  <si>
-    <t>Patas Soporte con Rueda - 2500 Kg.</t>
-  </si>
-  <si>
-    <t>Marca AL-KO.|Con rueda compacta.|&lt;strong&gt;Capacidad:&lt;/strong&gt; 500 Kg. Para remolques 2500 Kg.|&lt;strong&gt;Medidas:&lt;strong&gt;|48 cm. en estado normal|78 cm. extendida.|&lt;br /&gt;|&lt;strong&gt;Utilidades:&lt;strong&gt;|• Facilita el enganche en el sistema del carro, ya que permite subir y bajar el remolque en un margen de 30 cm.|• Sirve como apoyo cuando el remolque está estacionado.|• Permite arrastrar el remolque con menor esfuerzo, ya que se sostiene sobre la rueda.</t>
-  </si>
-  <si>
-    <t>Patas Soporte Estacionarias - 1000 Kg.</t>
-  </si>
-  <si>
-    <t>Marca AL-KO.|Con base redonda.|&lt;strong&gt;Capacidad:&lt;/strong&gt; 1000 Kg. Para remolques 2000 Kg.|&lt;strong&gt;Medidas:&lt;strong&gt;|54 cm. en estado normal|90 cm. extendida.|&lt;br /&gt;|&lt;strong&gt;Utilidades:&lt;strong&gt;|• Facilita el enganche en el sistema del carro, ya que permite subir y bajar el remolque en un margen de 36 cm.|• Sirve como apoyo cuando el remolque está estacionado.</t>
-  </si>
-  <si>
-    <t>Patas Soporte Estacionarias - 2500 Lb.</t>
-  </si>
-  <si>
-    <t>Con base cuadrada. Galvanizada.|Viene con pernos y platinas para instalar en el remolque.|&lt;strong&gt;Medidas:&lt;strong&gt;|24” (63.50 cm.) en estado normal|41” (104.14 cm.) extendida.|&lt;br /&gt;|&lt;strong&gt;Utilidades:&lt;strong&gt;|• Sube y baja 30 cm. Aprox.|•	Sirve como apoyo cuando el remolque está estacionado.</t>
-  </si>
-  <si>
-    <t>Patas Soporte Estacionarias - 5000 Lb.</t>
-  </si>
-  <si>
-    <t>Con base cuadrada. Galvanizada.|Viene con pernos y platinas para instalar en el remolque.|&lt;strong&gt;Medidas:&lt;strong&gt;|24.5” (62.23 cm.) en estado normal|40” (101.60 cm.) extendida.|&lt;br /&gt;|&lt;strong&gt;Utilidades:&lt;strong&gt;|• Sube y baja 40 cm. Aprox.|• Sirve como apoyo cuando el remolque está estacionado.</t>
-  </si>
-  <si>
     <t>aros</t>
-  </si>
-  <si>
-    <t>De diferentes medidas y capacidades para uso en remolques.</t>
-  </si>
-  <si>
-    <t>Aros con Llanta 8</t>
-  </si>
-  <si>
-    <t>4 Huecos|Medida llanta: 4.80 x 8.|Capacidad 585 Lb.|Aro Blanco</t>
-  </si>
-  <si>
-    <t>Aros con Llanta 12</t>
-  </si>
-  <si>
-    <t>4 Huecos|Medida llanta: 5.30 x 12.|Capacidad 1045 Lb.|Aro Galvanizado</t>
-  </si>
-  <si>
-    <t>Aros con Llanta 14</t>
-  </si>
-  <si>
-    <t>5 Huecos|Medida llanta: ST205/75D14|Capacidad 1760 Lb.|Aro Blanco</t>
   </si>
   <si>
     <t>guardafangos</t>
   </si>
   <si>
-    <t>Marca AL-KO|Plásticos, resistentes y elegantes.|Para remolques de un eje, y de doble eje.</t>
-  </si>
-  <si>
-    <t>Guardafangos Sencillos</t>
-  </si>
-  <si>
-    <t>Para un solo eje.|Marca: AL-KO.|Material: plástico|Trabajan con aro 13” y 14”. Largo 73 cm.|Ancho 20 cm.|Profundidad 36 cm.</t>
-  </si>
-  <si>
-    <t>Guardafangos Dobles</t>
-  </si>
-  <si>
-    <t>Para doble eje.|Marca: AL-KO.|Material: plástico|Trabajan con aro 13” y 14”. Largo 146 cm.|Ancho 22 cm. Profundidad 36 cm.</t>
-  </si>
-  <si>
     <t>frenos</t>
-  </si>
-  <si>
-    <t>El Sistema de freno hidráulico en un remolque es conveniente por su simplicidad, confiabilidad, facilidad de mantenimiento y alta eficacia.|&lt;br /&gt;|&lt;strong&gt;Un Sistema de freno clásico comprende:&lt;/strong&gt;|• Acople de freno|• Kit de Frenos de disco|• Puntas de eje con bridas|• Mangueras</t>
-  </si>
-  <si>
-    <t>Acople de freno</t>
-  </si>
-  <si>
-    <t>Capacidad 7000 Lb. (3.1 Ton.)|Trabaja con bola 2”.|Solenoide incorporado al cilindro maestro, que facilita la revisión sin sacar la línea de frenado.|Con pin de seguridad para la bola, y cable de freno recubierto en PVC.</t>
-  </si>
-  <si>
-    <t>Punta de Eje con Brida de Freno</t>
-  </si>
-  <si>
-    <t>1 3/8” x 1 1/16”|Capacidad 3500 Lb.|Con tuerca y arandela.|Cantidad requerida por eje: 2.</t>
-  </si>
-  <si>
-    <t>Kit de Freno de Discos 10" para Remolque</t>
-  </si>
-  <si>
-    <t>Capacidad 7000 Lb. (3.1 Ton.)|&lt;br /&gt;|&lt;strong&gt;Este kit comprende:&lt;/strong&gt;|•2 Discos de freno 10” de 5 pernos|• 2 Mordazas|• 2 Soportes de mordaza|• Juego de rulimanes|&lt;br /&gt;|Estas cantidades sirven para un solo eje.</t>
-  </si>
-  <si>
-    <t>Juego de Mangueras</t>
-  </si>
-  <si>
-    <t>Mangueras de freno termoplásticas con recubrimiento de poliuretano, anticorrosivas, para trabajos pesados ("heavy duty").|Incluye accesarios de conexión.|Medidas: 25' (7.62 m. Aprox.)/80" Ancho (2 m. Aprox.)</t>
-  </si>
-  <si>
-    <t>Componentes</t>
   </si>
   <si>
     <t>accesorios</t>
   </si>
   <si>
-    <t>• Acoples|• Bolas|• Tubo recibidor y enganche|• Alfombras|• Candados</t>
-  </si>
-  <si>
-    <t>Acoples</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;Diferentes medidas y capacidades:&lt;/strong&gt;|• 2000 Lb. Trabaja con bola 1 7/8”. Base que se conecta al remolque: 2”.|• 3500 Lb. Trabaja con bola 2”. Base que se conecta al remolque: 2”|• 5000 Lb. Trabaja con bola 2”. Base que se conecta al remolque: 3”</t>
-  </si>
-  <si>
-    <t>Bolas de Acople</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;Diferentes medidas y capacidades:&lt;/strong&gt;|• 1 7/8” – 2000 Lb.|• 2” - 3500 Lb.|• 2” - 5000 Lb.|• 2 5/16” – 40000 Lb.</t>
-  </si>
-  <si>
-    <t>Alfombras Sumergibles</t>
-  </si>
-  <si>
-    <t>Para remolques de uso acuático. Se usa para forrar las tablas de madera por donde se deslizan las embarcaciones al subir al remolque.|No se deteriora con la salinidad.|Se venden por metro.|Diferentes medidas de ancho:|• 6” – 30 cm. aprox.|• 8” – 45 cm. aprox.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enganche y Tubo Recibidor </t>
-  </si>
-  <si>
-    <t>Para la barra de tiro de su vehículo.|El Enganche trabaja con bolas 1 7/8” y 2”. Capacidad: 2 Ton. Se emperna al tubo recibidor.|El Tubo recibidor de 2”. Capacidad: 2 Ton. Se suelda en la barra de tiro.|Se venden por separado.</t>
-  </si>
-  <si>
-    <t>Candado</t>
-  </si>
-  <si>
-    <t>Candado para tubo recibidor</t>
-  </si>
-  <si>
     <t>chasis</t>
-  </si>
-  <si>
-    <t>Los mejores Chasis, nuevos modelos próximamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chasis </t>
-  </si>
-  <si>
-    <t>a. Chasis</t>
-  </si>
-  <si>
-    <t>Pata de apoyo 150 Kg.</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;Marca AL-KO&lt;/strong&gt;|&lt;strong&gt;Capacidad:&lt;/strong&gt; 150 Kg.|&lt;strong&gt;Medida:&lt;/strong&gt; 60 cm.|•Para remolque de 750 kg|•Sencilla, práctica y resistente.|•Zincada para garantizar la anticorrosión.</t>
-  </si>
-  <si>
-    <t>Pata de apoyo con manivela 150 Kg.</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;Marca AL-KO&lt;/strong&gt;|&lt;strong&gt;Capacidad:&lt;/strong&gt; 150 Kg.|Para remolque de 750 kg|&lt;strong&gt;Medida:&lt;/strong&gt;|•60 cm. en estado normal|•82 cm. extendida.|•Sencilla, práctica y resistente.|•Zincada para garantizar la anticorrosión.</t>
-  </si>
-  <si>
-    <t>Gancho tipo militar.</t>
-  </si>
-  <si>
-    <t>Utilizado para remolcar carga pesada.|Fabricado en acero forjado.|De alta resistencia.|&lt;strong&gt;Capacidad:&lt;/strong&gt;|• 5 Toneladas|• 10 Toneladas|Incluye kit de pernos para instalación.</t>
-  </si>
-  <si>
-    <t>Conectores eléctricos: 4 Polos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para conectar las luces del remolque.|Diferentes tipos: plásticos, metálicos|De 4 polos.|•Plásticos </t>
-  </si>
-  <si>
-    <t>Conectores eléctricos: 7 Polos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para conectar las luces del remolque.|Diferentes tipos: plásticos, metálicos|De 7 polos.|•Metálicos </t>
-  </si>
-  <si>
-    <t>Adaptador de conector de luces (7 a 4 polos)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-      </rPr>
-      <t>Plástico, resistente a la intemperie USA</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -373,11 +63,6 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1601,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D30" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1619,15 +1304,11 @@
       <c r="A1" s="2">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
@@ -1635,15 +1316,11 @@
       <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="2">
         <v>0</v>
       </c>
@@ -1653,15 +1330,11 @@
       <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="2">
         <v>0</v>
       </c>
@@ -1671,15 +1344,11 @@
       <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="2">
         <v>0</v>
       </c>
@@ -1689,15 +1358,11 @@
       <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="2">
         <v>0</v>
       </c>
@@ -1707,15 +1372,11 @@
       <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="2">
         <v>0</v>
       </c>
@@ -1725,15 +1386,11 @@
       <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
@@ -1741,15 +1398,11 @@
       <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="2">
         <v>0</v>
       </c>
@@ -1759,15 +1412,11 @@
       <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="2">
         <v>0</v>
       </c>
@@ -1777,15 +1426,11 @@
       <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="2">
         <v>0</v>
       </c>
@@ -1795,15 +1440,11 @@
       <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="2">
         <v>0</v>
       </c>
@@ -1813,15 +1454,11 @@
       <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
@@ -1829,15 +1466,11 @@
       <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="2">
         <v>0</v>
       </c>
@@ -1847,15 +1480,11 @@
       <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="2">
         <v>0</v>
       </c>
@@ -1865,15 +1494,11 @@
       <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="2">
         <v>0</v>
       </c>
@@ -1883,15 +1508,11 @@
       <c r="A16" s="2">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="2">
         <v>0</v>
       </c>
@@ -1901,15 +1522,11 @@
       <c r="A17" s="2">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="2">
         <v>0</v>
       </c>
@@ -1919,15 +1536,11 @@
       <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="2">
         <v>0</v>
       </c>
@@ -1937,15 +1550,11 @@
       <c r="A19" s="2">
         <v>19</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D19" s="4"/>
       <c r="E19" s="2">
         <v>0</v>
       </c>
@@ -1955,15 +1564,11 @@
       <c r="A20" s="2">
         <v>20</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
@@ -1971,15 +1576,11 @@
       <c r="A21" s="2">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="2">
         <v>0</v>
       </c>
@@ -1989,15 +1590,11 @@
       <c r="A22" s="2">
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>44</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D22" s="4"/>
       <c r="E22" s="2">
         <v>0</v>
       </c>
@@ -2007,15 +1604,11 @@
       <c r="A23" s="2">
         <v>23</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D23" s="4"/>
       <c r="E23" s="2">
         <v>0</v>
       </c>
@@ -2025,15 +1618,11 @@
       <c r="A24" s="2">
         <v>24</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>48</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D24" s="4"/>
       <c r="E24" s="2">
         <v>0</v>
       </c>
@@ -2043,15 +1632,11 @@
       <c r="A25" s="2">
         <v>25</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="2">
         <v>0</v>
       </c>
@@ -2061,15 +1646,11 @@
       <c r="A26" s="2">
         <v>26</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="2">
         <v>0</v>
       </c>
@@ -2079,15 +1660,11 @@
       <c r="A27" s="2">
         <v>27</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>54</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D27" s="4"/>
       <c r="E27" s="7">
         <v>1</v>
       </c>
@@ -2097,15 +1674,11 @@
       <c r="A28" s="2">
         <v>28</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D28" s="4"/>
       <c r="E28" s="2">
         <v>0</v>
       </c>
@@ -2115,15 +1688,11 @@
       <c r="A29" s="2">
         <v>29</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
@@ -2131,15 +1700,11 @@
       <c r="A30" s="2">
         <v>30</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D30" s="3"/>
       <c r="E30" s="2">
         <v>0</v>
       </c>
@@ -2149,15 +1714,11 @@
       <c r="A31" s="2">
         <v>31</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>62</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D31" s="3"/>
       <c r="E31" s="2">
         <v>0</v>
       </c>
@@ -2167,15 +1728,11 @@
       <c r="A32" s="2">
         <v>32</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D32" s="3"/>
       <c r="E32" s="2">
         <v>0</v>
       </c>
@@ -2185,15 +1742,11 @@
       <c r="A33" s="2">
         <v>33</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D33" s="4"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
@@ -2201,15 +1754,11 @@
       <c r="A34" s="2">
         <v>34</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D34" s="4"/>
       <c r="E34" s="2">
         <v>0</v>
       </c>
@@ -2219,15 +1768,11 @@
       <c r="A35" s="2">
         <v>35</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>70</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D35" s="4"/>
       <c r="E35" s="2">
         <v>0</v>
       </c>
@@ -2237,15 +1782,11 @@
       <c r="A36" s="2">
         <v>36</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>72</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D36" s="4"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
@@ -2253,15 +1794,11 @@
       <c r="A37" s="2">
         <v>37</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="B37" s="4"/>
       <c r="C37" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>74</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D37" s="4"/>
       <c r="E37" s="2">
         <v>0</v>
       </c>
@@ -2271,15 +1808,11 @@
       <c r="A38" s="2">
         <v>38</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D38" s="3"/>
       <c r="E38" s="2">
         <v>0</v>
       </c>
@@ -2289,15 +1822,11 @@
       <c r="A39" s="2">
         <v>39</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>78</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D39" s="4"/>
       <c r="E39" s="2">
         <v>0</v>
       </c>
@@ -2307,15 +1836,11 @@
       <c r="A40" s="2">
         <v>40</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D40" s="3"/>
       <c r="E40" s="2">
         <v>0</v>
       </c>
@@ -2325,15 +1850,11 @@
       <c r="A41" s="2">
         <v>41</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>83</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D41" s="4"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
@@ -2341,15 +1862,11 @@
       <c r="A42" s="2">
         <v>42</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>85</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D42" s="4"/>
       <c r="E42" s="2">
         <v>1</v>
       </c>
@@ -2359,15 +1876,11 @@
       <c r="A43" s="2">
         <v>43</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>87</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D43" s="4"/>
       <c r="E43" s="2">
         <v>0</v>
       </c>
@@ -2377,15 +1890,11 @@
       <c r="A44" s="2">
         <v>44</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D44" s="4"/>
       <c r="E44" s="2">
         <v>0</v>
       </c>
@@ -2395,15 +1904,11 @@
       <c r="A45" s="2">
         <v>45</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>91</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D45" s="4"/>
       <c r="E45" s="2">
         <v>0</v>
       </c>
@@ -2413,15 +1918,11 @@
       <c r="A46" s="2">
         <v>46</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>93</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D46" s="3"/>
       <c r="E46" s="2">
         <v>1</v>
       </c>
@@ -2431,15 +1932,11 @@
       <c r="A47" s="2">
         <v>47</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>95</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D47" s="3"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
@@ -2447,15 +1944,11 @@
       <c r="A48" s="2">
         <v>48</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D48" s="3"/>
       <c r="E48" s="2">
         <v>1</v>
       </c>
@@ -2465,15 +1958,11 @@
       <c r="A49" s="2">
         <v>49</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>99</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D49" s="8"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
@@ -2481,15 +1970,11 @@
       <c r="A50" s="2">
         <v>50</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="B50" s="3"/>
       <c r="C50" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>101</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D50" s="8"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
@@ -2497,15 +1982,11 @@
       <c r="A51" s="2">
         <v>51</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>103</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D51" s="8"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
@@ -2513,15 +1994,11 @@
       <c r="A52" s="2">
         <v>53</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>105</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D52" s="8"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
@@ -2529,15 +2006,11 @@
       <c r="A53" s="2">
         <v>54</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>107</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D53" s="8"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
@@ -2545,15 +2018,11 @@
       <c r="A54" s="2">
         <v>55</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>109</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D54" s="3"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>

--- a/assets/php/listado.xlsx
+++ b/assets/php/listado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasfocil/Documents/John Andrés/frontend-ferchos/assets/php/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23EDB8C-1629-9644-8C62-EB4E926A8B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CF2440-43A0-374A-9438-32FD4A92C10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31720" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="18320" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,40 +20,139 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
-  <si>
-    <t>torsion</t>
-  </si>
-  <si>
-    <t>punta</t>
-  </si>
-  <si>
-    <t>suspension</t>
-  </si>
-  <si>
-    <t>patas</t>
-  </si>
-  <si>
-    <t>aros</t>
-  </si>
-  <si>
-    <t>guardafangos</t>
-  </si>
-  <si>
-    <t>frenos</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>accesorios</t>
   </si>
   <si>
-    <t>chasis</t>
+    <t>Ventilador Argom Tech</t>
+  </si>
+  <si>
+    <t>• Equipado con puertos 2-USB para que no pierda uno en su computadora |• Ventilador grande de 140 mm incorporado para más flujo de aire para disipar el calor de la parte inferior de su computadora portátil.|•  Alturas ajustables de 5 niveles para una visualización óptima y comodidad ergonómica. |• Superficie de malla metálica con 2 puntales antideslizantes y ajustes de ancho ajustable. |• Cable USB incluido|• Compatible con portátiles de hasta 17"|• Velocidad del ventilador: hasta 1400 rpm y ruido: 15dBA|• Dimensión del ventilador: 140 x 140 x 15 mm</t>
+  </si>
+  <si>
+    <t>Parlantes Genius</t>
+  </si>
+  <si>
+    <t>• Potencia máxima total 6 W (3 W x 2) |• Unidad de potencia 2"|• Alimentación Conector USB para equipos portátiles o de escritorio.|• Volume control SÍ|• Entrada de audio 3.5 mm.|• Frecuencia 150HZ-20KHZ.|• Longitud de cable 1.2 m.</t>
+  </si>
+  <si>
+    <t>Gaming Mouse</t>
+  </si>
+  <si>
+    <t>• Tipo de mouse: óptico|• Número de botones: 6|• Sensibilidad del sensor: 800/1600/2000 ppp|• Interfaz: USB|• Longitud del cable: 1,8 m|• Dimensiones: 120 x 67.3 x 39 mm.|• Peso: 125 g</t>
+  </si>
+  <si>
+    <t>• Teclado para juegos o multimedia PC Gamer.|• Teclas suaves de alta precisión.|• Luz de fondo arco iris de fantasía (No ilumina las Teclas solo el contorno)|• Resistente a salpicaduras.|• 10 teclas multimedia añadidos para mayor comodidad.|• Universalmente aplicables gracias a USB</t>
+  </si>
+  <si>
+    <t>Genius Gaming Keyboard</t>
+  </si>
+  <si>
+    <t>Quasad Gaming Keyboard</t>
+  </si>
+  <si>
+    <t>• Cable USB con cordón para evitar roturas |• 8 teclas multimedia|• Retroiluminado RGB|• 5 Teclas programables G1,G2,G3,G4,G5|• Incluye software para personalización</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dúo de mouse y teclado multimedia </t>
+  </si>
+  <si>
+    <t>•Tipo: Teclado multimedia de tamaño compacto.|• Interfaz: Nano receptor USB inalámbrico.|• Número de teclas: 101.|• Número de teclas multimedia: 15 (a través de la tecla Fn)|• Espectro de RF: 2.4GHz.|• Alcance de RF: Hasta 10m.</t>
+  </si>
+  <si>
+    <t>Tinta para Impresora EPSON</t>
+  </si>
+  <si>
+    <t>• Marca: EPSON|• Modelo: T664|• Capacidad en mililitros: 70 ML.|• Presentación: Botella|• Color: Magenta.Negro, Cyan, Amarillo|• Rendimiento: 4000 Pags.|• Las tintas Epson 664 son compatibles con equipos Epson L110, L120, L200, L210, L220, L300, L310, L350, L355, L365, L375, L380, L395, L455, L475, L495, L555, L565, L575, L655, L656 y L1300</t>
+  </si>
+  <si>
+    <t>WP Green Solid State Drive</t>
+  </si>
+  <si>
+    <t>• Capacidad: 240 GB|• Interface: Serial ATA III|• Velocidad de lectura: 540 MB/s|• Velocidad de escritura: 430 MB/s</t>
+  </si>
+  <si>
+    <t>MSI Gaming GF63 10SC-204AU Thin</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>• Tipo de producto: Portátil, Factor de forma: Concha. |• Familia de procesador: Intel® Core™ i5 de 10ma Generación. |• Modelo del procesador: i5-10200H. |• Frecuencia del procesador: 2,4 GHz. |•  Diagonal de la pantalla: 39,6 cm (15.6″). |• Resolución de la pantalla: 1920 x 1080 Pixeles. |• Memoria interna: 8 GB. |• Tipo de memoria interna: DDR4-SDRAM. |• Capacidad total de almacenaje: 256 GB. |• Unidad de almacenamiento: SSD. |• Modelo de adaptador gráfico incorporado: Intel® UHD Graphics. |• Modelo de adaptador de gráficos discretos: NVIDIA® GeForce® GTX 1650 Max-Q. |• Sistema operativo instalado: Windows 10 Home. |• Color del producto: Negro</t>
+  </si>
+  <si>
+    <t>Kingston Solid State Drive</t>
+  </si>
+  <si>
+    <t>• Capacidad: 480 GB|• Interface: Serial III|• Factor de forma: 2.5''|• Grosor 7mm |• 41g</t>
+  </si>
+  <si>
+    <t>HP Memoria Interna DDR4</t>
+  </si>
+  <si>
+    <t>• Tipo de memoria interna: DDR4|• Memoria interna: 8 GB|• Diseño de memoria: 1 x 8 GB|• Velocidad de memoria del reloj: 2666 MHz |• Factor de Forma: 260-pin SO-DIMM</t>
+  </si>
+  <si>
+    <t>HP Memoria RAM Gamer DDR4</t>
+  </si>
+  <si>
+    <t>• Marca: HP|• Velocidad: 2400Mhz - 2600Mhz Red - 3000Mhz Blue (A eleccion del Ciente)|• Módulo de memoria de bloqueo DDR4 con experiencia de alta velocidad|• Diseño eficiente de enfriamiento|• La mejor opción con apariencia fresca|• Selección asegurada debido a la amplia compatibilidad</t>
+  </si>
+  <si>
+    <t>ASUS Laptop</t>
+  </si>
+  <si>
+    <t>• Marca: ASUS|• CPU Intel Core I3|• 4GB|• 256GB |• 14''</t>
+  </si>
+  <si>
+    <t>Impresora EPSON A3</t>
+  </si>
+  <si>
+    <t>impresoras</t>
+  </si>
+  <si>
+    <t>• A3 WF-7720DTWF de gran calidad. |• Ofrece impresión a una y doble cara, escáner y fax hasta formato A3. |• Además de dos bandejas de papel ideales para alternar entre diferentes tipos y tamaños de papel. |• Utiliza tintas económicas y proporciona opciones de conectividad flexibles, como NFC1 y Scan-to-Cloud2.</t>
+  </si>
+  <si>
+    <t>Teclado Speedming</t>
+  </si>
+  <si>
+    <t>• Teclado con teclas impresas en láser para mayor durabilidad, teclado numérico y teclas de función.|• Mouse con scroll con modalidad ultra rápida y es perfecto para diestros y zurdos.|• Parlantes que ofrecen una experiencia de sonido de alta definición.</t>
+  </si>
+  <si>
+    <t>Q-One PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Computadora Completa|• Case marca Q-ONE|• Core i3 de 10ma generación|• 480 GB de disco solido |• 8GB de RAM |• Monitor SAMSUNG de 19 pulgadas con entrada HDMI y VGA |• Kit multimedia de teclado + mouse + parlantes  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptop HP 3LA </t>
+  </si>
+  <si>
+    <t>• Laptop HP 15EH0003LA |• AMD RYZEN 7-4700U |• 16GB|• SSD 512GB |• 15.6''</t>
+  </si>
+  <si>
+    <t>Laptop Lenovo Core</t>
+  </si>
+  <si>
+    <t>• Sistema Operativo: Microsoft Windows 10 S. |• Procesador: Intel Core i3-1005G1 (doble núcleo, 1,2 GHz, 4 MB de caché). |• Almacenamiento: Unidad de estado sólido (SSD) |•  PCIe de 256 GB. |•  Memoria RAM: DDR4 de 8GB. |•  Sin unidad óptica. |• Pantalla táctil LED de 15,6 pulgadas (1366 x 768). |• Gráficos Intel UHD integrados. |• Puertos: 2 x USB 3.0, 1 x USB 2.0, 1 x HDMI. |• Cámara web de 1MP y micrófono integrado. |• Conectividad: IEEE 802.11ac y Bluetooth 5.0. |• Batería iones de litio de 2 celdas. |• Dimensiones: 9.98’’ x 14.26’’ x 0.78’’.</t>
+  </si>
+  <si>
+    <t>Impresora EPSON WF2860</t>
+  </si>
+  <si>
+    <t>• Impresión a doble cara para empresas: Utiliza hasta un 50 % menos de papel|• Wi-Fi 4 en 1: Escaneado, copia, impresión y envío por fax de forma inalámbrica|• Impresión móvil sencilla: Imprime fácilmente desde tu smartphone o tablet|• Tocar para conectar con NFC: Solo tienes que tocar en tu dispositivo Android para que la impresora comience a imprimir|• Control de pantalla táctil: Pantalla táctil LCD color de 6,1cm</t>
+  </si>
+  <si>
+    <t>• Wi-Fi 4 en 1: Impresión, escaneado, copia y función de fax|• Características para empresas: ADF, documentos de calidad empresarial e impresión a doble cara en A4|• Impresión y escaneado móvil de forma sencilla: Imprime fácilmente desde tu smartphone o tablet y usa el escaneado a la nube|• Tintas independientes: Cambia solo los colores usados y ahorra dinero|• Pantalla LCD de 6,1 cm: Explora fácilmente las funciones de la impresora</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -63,6 +162,30 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -106,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -118,12 +241,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1284,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D30" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1304,11 +1429,15 @@
       <c r="A1" s="2">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
@@ -1316,11 +1445,15 @@
       <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
@@ -1330,11 +1463,15 @@
       <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4"/>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
@@ -1344,11 +1481,15 @@
       <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
@@ -1358,11 +1499,15 @@
       <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
@@ -1372,11 +1517,15 @@
       <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
@@ -1386,11 +1535,15 @@
       <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4"/>
+      <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
@@ -1398,11 +1551,15 @@
       <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
@@ -1412,11 +1569,15 @@
       <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4"/>
+      <c r="B9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
@@ -1426,11 +1587,15 @@
       <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="B10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
@@ -1440,11 +1605,15 @@
       <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4"/>
+      <c r="B11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
@@ -1454,11 +1623,15 @@
       <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4"/>
+      <c r="B12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
@@ -1466,11 +1639,15 @@
       <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4"/>
+      <c r="B13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
@@ -1480,11 +1657,15 @@
       <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4"/>
+      <c r="B14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
@@ -1494,11 +1675,15 @@
       <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3"/>
+      <c r="B15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
@@ -1508,11 +1693,15 @@
       <c r="A16" s="2">
         <v>16</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4"/>
+      <c r="B16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="E16" s="2">
         <v>0</v>
       </c>
@@ -1522,11 +1711,15 @@
       <c r="A17" s="2">
         <v>17</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="4"/>
+      <c r="B17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
@@ -1536,11 +1729,15 @@
       <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
@@ -1550,11 +1747,15 @@
       <c r="A19" s="2">
         <v>19</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="4"/>
+      <c r="B19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
@@ -1564,467 +1765,17 @@
       <c r="A20" s="2">
         <v>20</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="4"/>
+      <c r="B20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>23</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>24</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>26</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>27</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="7">
-        <v>1</v>
-      </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>28</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>29</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>30</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>31</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>32</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>33</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>34</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>35</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>36</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>37</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>38</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="2">
-        <v>0</v>
-      </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>39</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="2">
-        <v>0</v>
-      </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>40</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="2">
-        <v>0</v>
-      </c>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>41</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>42</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="2">
-        <v>1</v>
-      </c>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>43</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>44</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="2">
-        <v>0</v>
-      </c>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>45</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>46</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="2">
-        <v>1</v>
-      </c>
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>47</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>48</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="2">
-        <v>1</v>
-      </c>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>49</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>50</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>51</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>53</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>54</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>55</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/php/listado.xlsx
+++ b/assets/php/listado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasfocil/Documents/John Andrés/frontend-ferchos/assets/php/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CF2440-43A0-374A-9438-32FD4A92C10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB0B929-8AAF-A240-92CF-E330CA11AF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="18320" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>• Capacidad: 240 GB|• Interface: Serial ATA III|• Velocidad de lectura: 540 MB/s|• Velocidad de escritura: 430 MB/s</t>
   </si>
   <si>
-    <t>MSI Gaming GF63 10SC-204AU Thin</t>
-  </si>
-  <si>
     <t>laptop</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>• Wi-Fi 4 en 1: Impresión, escaneado, copia y función de fax|• Características para empresas: ADF, documentos de calidad empresarial e impresión a doble cara en A4|• Impresión y escaneado móvil de forma sencilla: Imprime fácilmente desde tu smartphone o tablet y usa el escaneado a la nube|• Tintas independientes: Cambia solo los colores usados y ahorra dinero|• Pantalla LCD de 6,1 cm: Explora fácilmente las funciones de la impresora</t>
+  </si>
+  <si>
+    <t>MSI Gaming GF63</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1412,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1570,13 +1570,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1640,13 +1640,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -1676,13 +1676,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -1694,13 +1694,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -1712,13 +1712,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1730,13 +1730,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1766,13 +1766,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>

--- a/assets/php/listado.xlsx
+++ b/assets/php/listado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasfocil/Documents/John Andrés/frontend-ferchos/assets/php/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB0B929-8AAF-A240-92CF-E330CA11AF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BF60F1-8BB1-404D-91D8-216FF0929F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="18320" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>• Cable USB con cordón para evitar roturas |• 8 teclas multimedia|• Retroiluminado RGB|• 5 Teclas programables G1,G2,G3,G4,G5|• Incluye software para personalización</t>
   </si>
   <si>
-    <t xml:space="preserve">Dúo de mouse y teclado multimedia </t>
-  </si>
-  <si>
     <t>•Tipo: Teclado multimedia de tamaño compacto.|• Interfaz: Nano receptor USB inalámbrico.|• Número de teclas: 101.|• Número de teclas multimedia: 15 (a través de la tecla Fn)|• Espectro de RF: 2.4GHz.|• Alcance de RF: Hasta 10m.</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>• Tipo de memoria interna: DDR4|• Memoria interna: 8 GB|• Diseño de memoria: 1 x 8 GB|• Velocidad de memoria del reloj: 2666 MHz |• Factor de Forma: 260-pin SO-DIMM</t>
   </si>
   <si>
-    <t>HP Memoria RAM Gamer DDR4</t>
-  </si>
-  <si>
     <t>• Marca: HP|• Velocidad: 2400Mhz - 2600Mhz Red - 3000Mhz Blue (A eleccion del Ciente)|• Módulo de memoria de bloqueo DDR4 con experiencia de alta velocidad|• Diseño eficiente de enfriamiento|• La mejor opción con apariencia fresca|• Selección asegurada debido a la amplia compatibilidad</t>
   </si>
   <si>
@@ -146,6 +140,12 @@
   </si>
   <si>
     <t>MSI Gaming GF63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dúo de mouse y teclado </t>
+  </si>
+  <si>
+    <t>HP RAM Gamer DDR4</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1412,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1518,13 +1518,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1552,13 +1552,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1570,13 +1570,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1640,13 +1640,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -1676,13 +1676,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -1694,13 +1694,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -1712,13 +1712,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1730,13 +1730,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1766,13 +1766,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
